--- a/zz.xlsx
+++ b/zz.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.60373746567751</v>
+        <v>1.487558151486508</v>
       </c>
       <c r="C2" t="n">
-        <v>-18.06491020359609</v>
+        <v>0.02638541356793361</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.63241647233095</v>
+        <v>1.458879144833066</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.60373746567751</v>
+        <v>1.487558151486508</v>
       </c>
       <c r="C3" t="n">
-        <v>-18.06490890736738</v>
+        <v>0.02638670979664702</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.79861823093957</v>
+        <v>1.292677386224447</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-16.60373746567751</v>
+        <v>1.487558151486508</v>
       </c>
       <c r="C4" t="n">
-        <v>-18.06491741677512</v>
+        <v>0.02637820038890631</v>
       </c>
       <c r="D4" t="n">
-        <v>-16.92943256946067</v>
+        <v>1.161863047703354</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C5" t="n">
-        <v>-18.06491416182832</v>
+        <v>0.02638145533570864</v>
       </c>
       <c r="D5" t="n">
-        <v>-17.59002713602457</v>
+        <v>0.5012684811394577</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C6" t="n">
-        <v>-18.06490862952725</v>
+        <v>0.02638698763677477</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.72033108221452</v>
+        <v>0.3709645349495046</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C7" t="n">
-        <v>-18.06591291301769</v>
+        <v>0.02538270414633249</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.72981177428512</v>
+        <v>0.3614838428788963</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.06592311856785</v>
+        <v>0.02537249859617788</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.78270240108996</v>
+        <v>0.3085932160740661</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.0659289947295</v>
+        <v>0.0253666224345296</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.82358418994321</v>
+        <v>0.2677114272208181</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C10" t="n">
-        <v>-18.06599321631114</v>
+        <v>0.02530240085287637</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.86890179328132</v>
+        <v>0.2223938238826979</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C11" t="n">
-        <v>-18.06602237305809</v>
+        <v>0.02527324410592471</v>
       </c>
       <c r="D11" t="n">
-        <v>-17.94098389204543</v>
+        <v>0.1503117251186003</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C12" t="n">
-        <v>-18.10717639615947</v>
+        <v>-0.01588077899545084</v>
       </c>
       <c r="D12" t="n">
-        <v>-18.00139760598759</v>
+        <v>0.08989801117644267</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C13" t="n">
-        <v>-18.10718125653776</v>
+        <v>-0.01588563937373166</v>
       </c>
       <c r="D13" t="n">
-        <v>-18.03820953645486</v>
+        <v>0.05308608070916692</v>
       </c>
     </row>
     <row r="14">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C14" t="n">
-        <v>-18.10718338645768</v>
+        <v>-0.01588776929365365</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.06010899594489</v>
+        <v>0.03118662121913895</v>
       </c>
     </row>
     <row r="15">
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C15" t="n">
-        <v>-18.10719461546475</v>
+        <v>-0.01589899830072651</v>
       </c>
       <c r="D15" t="n">
-        <v>-18.0815554784023</v>
+        <v>0.009740138761720231</v>
       </c>
     </row>
     <row r="16">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.37717444303087</v>
+        <v>0.7141211741331546</v>
       </c>
       <c r="C16" t="n">
-        <v>-18.10719227959617</v>
+        <v>-0.01589666243213858</v>
       </c>
       <c r="D16" t="n">
-        <v>-18.10719227959617</v>
+        <v>-0.01589666243213858</v>
       </c>
     </row>
   </sheetData>
